--- a/data/trans_dic/P2A_enfcro_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P2A_enfcro_R-Edad-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>20,03; 28,09</t>
+          <t>19,84; 27,14</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>28,69; 37,31</t>
+          <t>28,64; 37,27</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>26,65; 35,53</t>
+          <t>26,39; 36,02</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>91,13; 97,82</t>
+          <t>90,28; 97,67</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>33,64; 42,53</t>
+          <t>33,77; 42,87</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>38,25; 47,86</t>
+          <t>38,06; 47,13</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>30,64; 40,17</t>
+          <t>30,85; 39,65</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>87,32; 95,55</t>
+          <t>87,34; 95,82</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>27,79; 33,44</t>
+          <t>27,98; 33,29</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>34,38; 41,21</t>
+          <t>34,5; 40,99</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>30,15; 36,45</t>
+          <t>29,77; 36,6</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>90,59; 96,07</t>
+          <t>90,63; 96,1</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>26,57; 32,85</t>
+          <t>26,7; 33,46</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>36,64; 44,05</t>
+          <t>36,85; 44,48</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>25,55; 33,4</t>
+          <t>25,58; 33,09</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>93,48; 98,15</t>
+          <t>93,54; 98,07</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>39,48; 47,75</t>
+          <t>39,26; 47,49</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>44,65; 52,86</t>
+          <t>44,61; 52,89</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>36,56; 44,24</t>
+          <t>36,44; 44,4</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>80,65; 96,29</t>
+          <t>82,15; 96,4</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>33,61; 38,73</t>
+          <t>33,57; 38,8</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>41,6; 47,2</t>
+          <t>41,46; 47,03</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>32,03; 37,6</t>
+          <t>32,41; 37,78</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>87,64; 96,57</t>
+          <t>88,48; 96,63</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>30,98; 39,06</t>
+          <t>31,16; 39,07</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>38,32; 46,17</t>
+          <t>38,25; 45,99</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>31,28; 38,63</t>
+          <t>30,95; 39,03</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>93,76; 97,28</t>
+          <t>93,86; 97,41</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>48,7; 56,71</t>
+          <t>48,8; 56,14</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>54,09; 61,55</t>
+          <t>54,02; 61,53</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>44,47; 52,24</t>
+          <t>45,08; 52,64</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>92,5; 95,97</t>
+          <t>92,55; 96,01</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>41,33; 46,88</t>
+          <t>41,25; 47,02</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>47,42; 52,71</t>
+          <t>47,36; 52,79</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>38,91; 44,51</t>
+          <t>39,12; 44,61</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>93,71; 96,19</t>
+          <t>93,82; 96,27</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>45,52; 54,76</t>
+          <t>45,38; 54,64</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>47,33; 55,89</t>
+          <t>47,54; 55,91</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>49,68; 57,86</t>
+          <t>49,68; 57,95</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>95,08; 98,03</t>
+          <t>95,36; 98,01</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>61,39; 69,84</t>
+          <t>61,71; 69,97</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>68,92; 76,36</t>
+          <t>69,3; 76,9</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>56,37; 64,56</t>
+          <t>56,23; 64,0</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>95,37; 97,63</t>
+          <t>95,35; 97,58</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>54,6; 60,72</t>
+          <t>54,67; 60,87</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>59,46; 65,31</t>
+          <t>59,64; 65,41</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>53,91; 59,63</t>
+          <t>54,43; 59,8</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>95,75; 97,56</t>
+          <t>95,87; 97,58</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>71,16; 79,56</t>
+          <t>70,75; 79,66</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>73,05; 81,37</t>
+          <t>73,05; 81,08</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>61,25; 70,49</t>
+          <t>61,6; 70,34</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>94,98; 97,94</t>
+          <t>95,09; 97,92</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>73,77; 81,8</t>
+          <t>73,97; 82,13</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>84,61; 90,77</t>
+          <t>84,29; 90,77</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>76,78; 84,56</t>
+          <t>76,74; 84,64</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>95,7; 98,03</t>
+          <t>95,57; 97,95</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>73,81; 79,49</t>
+          <t>73,67; 79,84</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>80,05; 85,35</t>
+          <t>79,67; 85,0</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>70,63; 76,52</t>
+          <t>70,49; 76,3</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>95,8; 97,66</t>
+          <t>95,67; 97,56</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>82,37; 88,42</t>
+          <t>82,59; 88,79</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>92,13; 96,27</t>
+          <t>92,1; 96,25</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>87,92; 92,43</t>
+          <t>88,28; 92,82</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>97,53; 99,12</t>
+          <t>97,58; 99,2</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>90,59; 94,44</t>
+          <t>90,59; 94,48</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>94,42; 97,38</t>
+          <t>94,16; 97,3</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>91,24; 95,02</t>
+          <t>91,33; 95,15</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>97,92; 99,19</t>
+          <t>97,99; 99,17</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>87,84; 91,54</t>
+          <t>87,76; 91,35</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>94,02; 96,39</t>
+          <t>94,01; 96,47</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>90,5; 93,44</t>
+          <t>90,51; 93,46</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>98,13; 99,05</t>
+          <t>98,03; 99,06</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>45,43; 48,88</t>
+          <t>45,35; 48,82</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>53,67; 57,07</t>
+          <t>53,46; 57,11</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>49,28; 52,72</t>
+          <t>49,28; 52,77</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>95,95; 97,46</t>
+          <t>95,94; 97,42</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>60,35; 63,68</t>
+          <t>60,37; 63,58</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>67,34; 70,4</t>
+          <t>67,09; 70,32</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>60,57; 63,93</t>
+          <t>60,71; 64,02</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>94,6; 96,7</t>
+          <t>94,46; 96,66</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>53,39; 55,91</t>
+          <t>53,39; 55,93</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>60,88; 63,39</t>
+          <t>60,89; 63,36</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>55,74; 58,03</t>
+          <t>55,65; 58,0</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>95,66; 96,85</t>
+          <t>95,65; 96,84</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P2A_enfcro_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P2A_enfcro_R-Edad-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N18"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>23,43%</t>
+          <t>22,15%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>32,81%</t>
+          <t>31,49%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>31,05%</t>
+          <t>29,72%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>95,12%</t>
+          <t>25,86%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>38,09%</t>
+          <t>36,53%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>42,73%</t>
+          <t>40,89%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>35,44%</t>
+          <t>34,69%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>92,34%</t>
+          <t>23,84%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>30,56%</t>
+          <t>29,14%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>37,64%</t>
+          <t>36,06%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>33,18%</t>
+          <t>32,13%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>93,78%</t>
+          <t>24,97%</t>
         </is>
       </c>
     </row>
@@ -724,69 +724,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>19,84; 27,14</t>
+          <t>18,62; 25,71</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>28,64; 37,27</t>
+          <t>27,41; 36,03</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>26,39; 36,02</t>
+          <t>25,29; 34,52</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>90,28; 97,67</t>
+          <t>18,4; 34,05</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>33,77; 42,87</t>
+          <t>32,23; 41,29</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>38,06; 47,13</t>
+          <t>36,25; 45,6</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>30,85; 39,65</t>
+          <t>29,98; 38,95</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>87,34; 95,82</t>
+          <t>17,12; 30,99</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>27,98; 33,29</t>
+          <t>26,57; 31,83</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>34,5; 40,99</t>
+          <t>33,0; 39,59</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>29,77; 36,6</t>
+          <t>28,43; 35,32</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>90,63; 96,1</t>
+          <t>19,84; 31,04</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>29,69%</t>
+          <t>27,45%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>40,58%</t>
+          <t>38,65%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>29,32%</t>
+          <t>28,45%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>96,32%</t>
+          <t>22,65%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>43,67%</t>
+          <t>43,61%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>48,7%</t>
+          <t>47,4%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>40,57%</t>
+          <t>39,91%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>92,86%</t>
+          <t>19,72%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>36,12%</t>
+          <t>34,88%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>44,4%</t>
+          <t>42,76%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>34,81%</t>
+          <t>34,05%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>94,46%</t>
+          <t>21,05%</t>
         </is>
       </c>
     </row>
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>26,7; 33,46</t>
+          <t>24,59; 31,0</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>36,85; 44,48</t>
+          <t>34,96; 42,45</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>25,58; 33,09</t>
+          <t>24,77; 32,24</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>93,54; 98,07</t>
+          <t>17,67; 28,31</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>39,26; 47,49</t>
+          <t>39,16; 47,33</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>44,61; 52,89</t>
+          <t>43,41; 51,39</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>36,44; 44,4</t>
+          <t>35,86; 43,91</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>82,15; 96,4</t>
+          <t>12,06; 24,32</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>33,57; 38,8</t>
+          <t>32,33; 37,38</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>41,46; 47,03</t>
+          <t>39,88; 45,33</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>32,41; 37,78</t>
+          <t>31,61; 36,9</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>88,48; 96,63</t>
+          <t>15,65; 24,56</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>35,15%</t>
+          <t>33,6%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>42,1%</t>
+          <t>41,05%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>34,75%</t>
+          <t>33,33%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>95,87%</t>
+          <t>20,56%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>52,55%</t>
+          <t>51,45%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>57,71%</t>
+          <t>56,87%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>48,69%</t>
+          <t>47,69%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>94,48%</t>
+          <t>24,0%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>44,18%</t>
+          <t>42,87%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>50,07%</t>
+          <t>49,13%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>41,68%</t>
+          <t>40,47%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>95,14%</t>
+          <t>22,37%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>31,16; 39,07</t>
+          <t>29,57; 37,26</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>38,25; 45,99</t>
+          <t>37,14; 45,05</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>30,95; 39,03</t>
+          <t>29,67; 37,44</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>93,86; 97,41</t>
+          <t>17,02; 24,05</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>48,8; 56,14</t>
+          <t>47,64; 55,01</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>54,02; 61,53</t>
+          <t>53,15; 60,77</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>45,08; 52,64</t>
+          <t>44,13; 51,48</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>92,55; 96,01</t>
+          <t>18,2; 27,63</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>41,25; 47,02</t>
+          <t>39,98; 45,61</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>47,36; 52,79</t>
+          <t>46,31; 51,8</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>39,12; 44,61</t>
+          <t>37,9; 43,37</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>93,82; 96,27</t>
+          <t>19,25; 24,88</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>47,4%</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
           <t>50,03%</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>51,89%</t>
-        </is>
-      </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>53,83%</t>
+          <t>51,64%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>96,91%</t>
+          <t>21,9%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>65,63%</t>
+          <t>63,19%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>72,93%</t>
+          <t>70,88%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>60,31%</t>
+          <t>59,04%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>96,59%</t>
+          <t>34,59%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>57,8%</t>
+          <t>55,27%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>62,42%</t>
+          <t>60,46%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>57,07%</t>
+          <t>55,35%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>96,74%</t>
+          <t>27,55%</t>
         </is>
       </c>
     </row>
@@ -1144,69 +1144,69 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>45,38; 54,64</t>
+          <t>42,5; 51,71</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>47,54; 55,91</t>
+          <t>45,55; 54,22</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>49,68; 57,95</t>
+          <t>47,44; 55,78</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>95,36; 98,01</t>
+          <t>9,13; 31,07</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>61,71; 69,97</t>
+          <t>59,36; 67,64</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>69,3; 76,9</t>
+          <t>66,89; 74,67</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>56,23; 64,0</t>
+          <t>54,86; 62,81</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>95,35; 97,58</t>
+          <t>28,86; 37,88</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>54,67; 60,87</t>
+          <t>52,0; 58,24</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>59,64; 65,41</t>
+          <t>57,58; 63,37</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>54,43; 59,8</t>
+          <t>52,55; 57,98</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>95,87; 97,58</t>
+          <t>16,99; 33,79</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>75,37%</t>
+          <t>70,86%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>77,28%</t>
+          <t>75,65%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>66,08%</t>
+          <t>63,91%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>96,67%</t>
+          <t>44,02%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>78,27%</t>
+          <t>77,39%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>87,88%</t>
+          <t>86,26%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>81,05%</t>
+          <t>78,77%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>96,91%</t>
+          <t>49,7%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>76,85%</t>
+          <t>74,2%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>82,69%</t>
+          <t>81,07%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>73,71%</t>
+          <t>71,48%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>96,79%</t>
+          <t>46,83%</t>
         </is>
       </c>
     </row>
@@ -1284,69 +1284,69 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>70,75; 79,66</t>
+          <t>66,35; 75,71</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>73,05; 81,08</t>
+          <t>71,24; 79,85</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>61,6; 70,34</t>
+          <t>59,44; 68,32</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>95,09; 97,92</t>
+          <t>40,12; 48,1</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>73,97; 82,13</t>
+          <t>73,1; 81,27</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>84,29; 90,77</t>
+          <t>82,81; 89,46</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>76,74; 84,64</t>
+          <t>74,25; 82,57</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>95,57; 97,95</t>
+          <t>46,55; 53,05</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>73,67; 79,84</t>
+          <t>71,05; 77,23</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>79,67; 85,0</t>
+          <t>77,97; 83,55</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>70,49; 76,3</t>
+          <t>68,16; 74,25</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>95,67; 97,56</t>
+          <t>44,54; 49,58</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1356,62 +1356,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>85,78%</t>
+          <t>76,95%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>94,42%</t>
+          <t>92,83%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>90,49%</t>
+          <t>87,52%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>98,53%</t>
+          <t>47,14%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>92,68%</t>
+          <t>88,54%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>96,08%</t>
+          <t>94,37%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>93,29%</t>
+          <t>88,92%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>98,64%</t>
+          <t>72,94%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>89,74%</t>
+          <t>83,21%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>95,37%</t>
+          <t>93,65%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>92,08%</t>
+          <t>88,26%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>98,6%</t>
+          <t>63,21%</t>
         </is>
       </c>
     </row>
@@ -1424,69 +1424,69 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>82,59; 88,79</t>
+          <t>71,75; 81,45</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>92,1; 96,25</t>
+          <t>89,14; 95,49</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>88,28; 92,82</t>
+          <t>83,04; 90,52</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>97,58; 99,2</t>
+          <t>42,97; 51,33</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>90,59; 94,48</t>
+          <t>85,03; 91,74</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>94,16; 97,3</t>
+          <t>91,57; 96,61</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>91,33; 95,15</t>
+          <t>85,15; 92,04</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>97,99; 99,17</t>
+          <t>58,32; 90,19</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>87,76; 91,35</t>
+          <t>80,29; 86,04</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>94,01; 96,47</t>
+          <t>91,4; 95,44</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>90,51; 93,46</t>
+          <t>85,38; 90,57</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>98,03; 99,06</t>
+          <t>52,63; 83,45</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1496,62 +1496,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>47,02%</t>
+          <t>87,03%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>55,27%</t>
+          <t>95,18%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>51,1%</t>
+          <t>93,19%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>96,75%</t>
+          <t>63,66%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>62,01%</t>
+          <t>89,91%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>68,8%</t>
+          <t>97,08%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>62,37%</t>
+          <t>96,16%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>95,98%</t>
+          <t>66,81%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>54,63%</t>
+          <t>88,8%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>62,16%</t>
+          <t>96,34%</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>56,86%</t>
+          <t>95,0%</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>96,34%</t>
+          <t>65,55%</t>
         </is>
       </c>
     </row>
@@ -1564,74 +1564,214 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>45,35; 48,82</t>
+          <t>81,62; 90,9</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>53,46; 57,11</t>
+          <t>92,06; 97,53</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>49,28; 52,77</t>
+          <t>89,72; 95,55</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>95,94; 97,42</t>
+          <t>59,19; 68,73</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>60,37; 63,58</t>
+          <t>85,77; 92,89</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>67,09; 70,32</t>
+          <t>94,65; 98,52</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>60,71; 64,02</t>
+          <t>93,27; 97,77</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>94,46; 96,66</t>
+          <t>63,61; 69,85</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>53,39; 55,93</t>
+          <t>85,99; 91,45</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>60,89; 63,36</t>
+          <t>94,35; 97,58</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>55,65; 58,0</t>
+          <t>93,02; 96,45</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>95,65; 96,84</t>
+          <t>63,07; 68,31</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>44,37%</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>53,88%</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>49,7%</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>31,93%</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>60,39%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>67,56%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>61,3%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>42,15%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>52,5%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>60,85%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>55,62%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>37,22%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>42,75; 46,14</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>51,99; 55,77</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>47,85; 51,38</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>24,3; 34,92</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>58,68; 61,95</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>65,86; 69,11</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>59,57; 62,9</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>37,99; 52,23</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>51,31; 53,76</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>59,62; 62,05</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>54,43; 56,78</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>33,5; 42,32</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1642,6 +1782,7 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_dic/P2A_enfcro_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P2A_enfcro_R-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>18,62; 25,71</t>
+          <t>18,51; 25,86</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>27,41; 36,03</t>
+          <t>27,1; 35,84</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>25,29; 34,52</t>
+          <t>24,88; 34,71</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>18,4; 34,05</t>
+          <t>18,55; 34,81</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>32,23; 41,29</t>
+          <t>32,27; 41,02</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>36,25; 45,6</t>
+          <t>36,82; 46,05</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>29,98; 38,95</t>
+          <t>30,41; 39,03</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>17,12; 30,99</t>
+          <t>17,86; 31,72</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>26,57; 31,83</t>
+          <t>26,08; 32,11</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>33,0; 39,59</t>
+          <t>33,06; 39,46</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>28,43; 35,32</t>
+          <t>28,8; 35,43</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>19,84; 31,04</t>
+          <t>20,1; 31,18</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>24,59; 31,0</t>
+          <t>24,18; 30,78</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>34,96; 42,45</t>
+          <t>34,87; 42,25</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>24,77; 32,24</t>
+          <t>25,06; 32,99</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>17,67; 28,31</t>
+          <t>17,47; 28,32</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>39,16; 47,33</t>
+          <t>39,79; 47,41</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>43,41; 51,39</t>
+          <t>43,08; 51,73</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>35,86; 43,91</t>
+          <t>35,66; 44,08</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>12,06; 24,32</t>
+          <t>11,85; 24,42</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>32,33; 37,38</t>
+          <t>32,06; 37,3</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>39,88; 45,33</t>
+          <t>39,87; 45,49</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>31,61; 36,9</t>
+          <t>31,46; 36,71</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>15,65; 24,56</t>
+          <t>15,77; 24,9</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>29,57; 37,26</t>
+          <t>29,74; 37,5</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>37,14; 45,05</t>
+          <t>36,96; 44,61</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>29,67; 37,44</t>
+          <t>29,95; 37,19</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>17,02; 24,05</t>
+          <t>16,68; 24,12</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>47,64; 55,01</t>
+          <t>47,81; 54,97</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>53,15; 60,77</t>
+          <t>53,28; 61,34</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>44,13; 51,48</t>
+          <t>43,94; 51,36</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>18,2; 27,63</t>
+          <t>18,56; 27,53</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>39,98; 45,61</t>
+          <t>40,19; 45,5</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>46,31; 51,8</t>
+          <t>46,03; 51,9</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>37,9; 43,37</t>
+          <t>37,74; 43,37</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>19,25; 24,88</t>
+          <t>18,81; 24,81</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>42,5; 51,71</t>
+          <t>42,76; 52,37</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>45,55; 54,22</t>
+          <t>45,73; 54,26</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>47,44; 55,78</t>
+          <t>47,83; 56,1</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>9,13; 31,07</t>
+          <t>9,75; 31,72</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>59,36; 67,64</t>
+          <t>59,47; 67,73</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>66,89; 74,67</t>
+          <t>67,13; 74,53</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>54,86; 62,81</t>
+          <t>55,28; 62,96</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>28,86; 37,88</t>
+          <t>29,17; 37,95</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>52,0; 58,24</t>
+          <t>52,18; 58,38</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>57,58; 63,37</t>
+          <t>57,3; 63,53</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>52,55; 57,98</t>
+          <t>52,86; 58,2</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>16,99; 33,79</t>
+          <t>16,06; 33,32</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>66,35; 75,71</t>
+          <t>66,25; 75,22</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>71,24; 79,85</t>
+          <t>71,56; 80,26</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>59,44; 68,32</t>
+          <t>59,17; 68,52</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>40,12; 48,1</t>
+          <t>40,52; 48,07</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>73,1; 81,27</t>
+          <t>73,13; 81,24</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>82,81; 89,46</t>
+          <t>82,82; 89,39</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>74,25; 82,57</t>
+          <t>74,2; 82,62</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>46,55; 53,05</t>
+          <t>46,4; 52,65</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>71,05; 77,23</t>
+          <t>70,77; 77,13</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>77,97; 83,55</t>
+          <t>77,97; 83,89</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>68,16; 74,25</t>
+          <t>68,31; 74,57</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>44,54; 49,58</t>
+          <t>44,2; 49,15</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1425,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>71,75; 81,45</t>
+          <t>71,49; 81,35</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>89,14; 95,49</t>
+          <t>89,27; 95,45</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>83,04; 90,52</t>
+          <t>83,68; 91,04</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>42,97; 51,33</t>
+          <t>42,69; 51,11</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>85,03; 91,74</t>
+          <t>84,98; 91,48</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>91,57; 96,61</t>
+          <t>91,25; 96,35</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>85,15; 92,04</t>
+          <t>85,6; 92,0</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>58,32; 90,19</t>
+          <t>58,12; 88,44</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>80,29; 86,04</t>
+          <t>80,15; 85,86</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>91,4; 95,44</t>
+          <t>91,58; 95,38</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>85,38; 90,57</t>
+          <t>85,38; 90,4</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>52,63; 83,45</t>
+          <t>52,62; 79,95</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1565,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>81,62; 90,9</t>
+          <t>82,3; 91,0</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>92,06; 97,53</t>
+          <t>92,03; 97,47</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>89,72; 95,55</t>
+          <t>89,6; 95,72</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>59,19; 68,73</t>
+          <t>58,89; 68,38</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>85,77; 92,89</t>
+          <t>85,84; 92,95</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>94,65; 98,52</t>
+          <t>95,02; 98,56</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>93,27; 97,77</t>
+          <t>93,62; 98,04</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>63,61; 69,85</t>
+          <t>63,5; 70,18</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>85,99; 91,45</t>
+          <t>85,85; 91,25</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>94,35; 97,58</t>
+          <t>94,54; 97,61</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>93,02; 96,45</t>
+          <t>93,07; 96,44</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>63,07; 68,31</t>
+          <t>63,04; 68,76</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1705,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>42,75; 46,14</t>
+          <t>42,58; 46,34</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>51,99; 55,77</t>
+          <t>52,23; 55,7</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>47,85; 51,38</t>
+          <t>47,97; 51,55</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>24,3; 34,92</t>
+          <t>25,38; 35,18</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>58,68; 61,95</t>
+          <t>58,74; 62,17</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>65,86; 69,11</t>
+          <t>65,95; 69,23</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>59,57; 62,9</t>
+          <t>59,63; 62,93</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>37,99; 52,23</t>
+          <t>38,18; 53,57</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>51,31; 53,76</t>
+          <t>51,27; 53,79</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>59,62; 62,05</t>
+          <t>59,7; 62,11</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>54,43; 56,78</t>
+          <t>54,38; 56,82</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>33,5; 42,32</t>
+          <t>33,68; 42,82</t>
         </is>
       </c>
     </row>
@@ -1787,4 +1788,1839 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Hogares con personas con enfermedades crónicas</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>113</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>143</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>118</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>181</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>172</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>138</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>294</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>315</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>256</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>109431</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>143008</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>124685</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>103437</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>170752</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>175913</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>137271</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>74660</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>280183</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>318921</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>261957</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>178097</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>91433; 127750</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>123093; 162770</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>104365; 145598</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>74207; 139246</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>150859; 191751</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>158409; 198141</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>120352; 154476</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>55945; 99341</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>250750; 308726</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>292377; 348970</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>234816; 288828</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>143356; 222345</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>197</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>263</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>160</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>259</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>270</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>231</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>456</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>533</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>391</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>164</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>201888</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>265562</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>167985</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>95938</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>272788</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>289244</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>224936</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>100977</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>474676</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>554805</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>392921</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>196915</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>177822; 226413</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>239590; 290279</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>147987; 194818</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>73994; 119949</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>248867; 296557</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>262907; 315688</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>200952; 248405</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>60670; 125077</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>436318; 507626</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>517286; 590172</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>363084; 423663</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>147554; 232951</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>206</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>263</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>211</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>115</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>337</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>380</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>313</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>222</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>543</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>643</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>524</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>337</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>214604</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>279903</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>223022</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>110297</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>354865</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>404285</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>315427</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>142068</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>569469</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>684188</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>538450</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>252365</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>189927; 239479</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>252018; 304209</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>200377; 248854</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>89443; 129382</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>329766; 379142</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>378769; 436003</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>290588; 339675</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>109890; 163000</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>533865; 604381</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>641080; 722806</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>502184; 577069</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>212197; 279901</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>233</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>278</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>300</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>197</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>322</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>381</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>354</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>408</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>555</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>659</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>654</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>605</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>246061</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>307462</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>333615</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>194400</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>325826</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>436738</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>383218</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>246553</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>571887</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>744200</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>716833</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>440954</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>221986; 271891</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>281053; 333502</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>309020; 362434</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>86602; 281597</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>306650; 349267</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>413677; 459276</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>358781; 408657</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>207982; 270572</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>539961; 604149</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>705278; 781942</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>684552; 753721</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>257140; 533278</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>278</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>297</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>272</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>284</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>306</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>352</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>344</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>490</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>584</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>649</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>616</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>774</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>274023</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>324875</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>305422</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>247077</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>312661</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>386284</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>391358</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>272289</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>586684</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>711158</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>696780</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>519366</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>256194; 290891</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>307313; 344657</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>282765; 327472</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>227409; 269768</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>295418; 328197</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>370872; 400274</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>368652; 410506</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>254204; 288488</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>559575; 609887</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>683963; 735899</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>665893; 726854</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>490256; 545195</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65-74</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>234</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>261</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>283</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>271</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>329</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>325</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>316</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>490</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>563</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>586</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>599</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>761</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>225132</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>287577</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>292612</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>173558</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>303650</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>334051</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>335888</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>443732</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>528782</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>621628</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>628500</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>617290</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>209168; 238012</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>276537; 295675</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>279764; 304371</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>157174; 188153</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>291414; 313717</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>323020; 341077</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>323356; 347551</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>353602; 538015</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>509392; 545660</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>607860; 633087</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>607957; 643698</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>513816; 780780</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>75 o más</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>191</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>211</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>282</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>298</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>260</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>340</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>289</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>596</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>451</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>551</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>571</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>894</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>182663</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>237815</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>239504</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>179994</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>300227</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>377611</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>384803</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>284513</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>482890</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>615426</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>624307</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>464507</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>172740; 191000</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>229931; 243521</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>230263; 246004</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>166518; 193348</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>286625; 310352</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>369596; 383361</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>374646; 392338</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>270419; 298859</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>466842; 496230</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>603976; 623579</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>611646; 633801</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>446703; 487261</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>1452</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>1716</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>1626</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>1262</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>1994</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>2220</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>1985</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>2349</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>3446</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>3936</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>3611</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>3611</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>1453801</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>1846202</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>1686846</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>1104702</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>2040770</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>2404125</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>2172901</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>1564793</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>3494572</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>4250328</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>3859748</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>2669494</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>1395018; 1518207</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>1789667; 1908688</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>1628133; 1749665</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>878030; 1217031</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>1984896; 2100982</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>2346785; 2463521</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>2113439; 2230684</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>1417449; 1988813</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>3412677; 3580049</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>4170243; 4338258</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>3773554; 3942718</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>2415351; 3070970</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>